--- a/src/excel-data/kinki.xlsx
+++ b/src/excel-data/kinki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9961385F-ADF3-A042-9B9D-7C3C5B8B8CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6BBC51-F81B-224B-81F9-F82126F5498E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>sortOrder</t>
   </si>
@@ -37,16 +37,10 @@
     <t>price_adult_regular</t>
   </si>
   <si>
-    <t>price_adult_advance</t>
-  </si>
-  <si>
     <t>price_adult_phone</t>
   </si>
   <si>
     <t>price_child_regular</t>
-  </si>
-  <si>
-    <t>price_child_advance</t>
   </si>
   <si>
     <t>price_child_phone</t>
@@ -135,13 +129,25 @@
   </si>
   <si>
     <t>现金支付; 购票机可购买</t>
+  </si>
+  <si>
+    <t>price_over65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_under15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_free</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +160,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -174,13 +188,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,18 +535,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AA152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,139 +577,471 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
       <c r="E2">
         <v>830</v>
       </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>420</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>420</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>3</v>
       </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
+      <c r="AA2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="11:13">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="11:13">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="11:13">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="11:13">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="11:13">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="11:13">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="11:13">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="11:13">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="11:13">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="11:13">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="97" spans="11:13">
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="11:13">
+      <c r="K98">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="99" spans="11:13">
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="11:13">
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="11:13">
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="11:13">
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="11:13">
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="11:13">
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="11:13">
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="11:13">
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="11:13">
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="11:13">
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="11:13">
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="11:13">
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="11:13">
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="11:13">
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="11:13">
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="11:13">
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="11:13">
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="11:13">
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="11:13">
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="11:13">
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="11:13">
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="11:13">
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="11:13">
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="11:13">
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="11:13">
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="11:13">
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="11:13">
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="11:13">
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="11:13">
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="11:13">
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="11:13">
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="11:13">
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="11:13">
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="11:13">
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="11:13">
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="11:13">
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="11:13">
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="11:13">
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="11:13">
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="11:13">
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="11:13">
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="11:13">
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="11:13">
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="11:13">
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="11:13">
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="11:13">
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="11:13">
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="11:13">
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="11:13">
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="11:13">
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="11:13">
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="11:13">
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="11:13">
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="11:13">
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/kinki.xlsx
+++ b/src/excel-data/kinki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6BBC51-F81B-224B-81F9-F82126F5498E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E653F31-D20B-6243-AC32-879FCC959BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="278">
   <si>
     <t>sortOrder</t>
   </si>
@@ -100,22 +100,7 @@
     <t>北海道</t>
   </si>
   <si>
-    <t>sapporo-subway-1day</t>
-  </si>
-  <si>
-    <t>札幌市营地铁全线一日券</t>
-  </si>
-  <si>
-    <t>札幌地铁全线路的一日券，适合札幌市内一日游。</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>/images/coverage/sapporo-subway-1day.png</t>
-  </si>
-  <si>
-    <t>不问国籍所有游客皆可购买</t>
   </si>
   <si>
     <t>地铁</t>
@@ -141,13 +126,745 @@
   <si>
     <t>price_free</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JRWest-Nara-Manzoku-FreePass</t>
+  </si>
+  <si>
+    <t>奈良満喫フリーきっぷ</t>
+  </si>
+  <si>
+    <t>奈良畅游自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Nara-Manzoku-FreePass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Santo-Monogatari-Pass</t>
+  </si>
+  <si>
+    <t>三都物語周遊乗車券</t>
+  </si>
+  <si>
+    <t>三都物语游览乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Santo-Monogatari-Pass.png</t>
+  </si>
+  <si>
+    <t>Osaka-One-Kansai-Smart-Access</t>
+  </si>
+  <si>
+    <t>ONE KANSAI 大阪スマートアクセスパス</t>
+  </si>
+  <si>
+    <t>ONE KANSAI 大阪智能通行证</t>
+  </si>
+  <si>
+    <t>/images/coverage/Osaka-One-Kansai-Smart-Access.png</t>
+  </si>
+  <si>
+    <t>Nankai-Sakai-Odekake-FreePass</t>
+  </si>
+  <si>
+    <t>堺おでかけフリーパス</t>
+  </si>
+  <si>
+    <t>堺出游自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nankai-Sakai-Odekake-FreePass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Realtime-Nazotoki-Osaka</t>
+  </si>
+  <si>
+    <t>JR西日本リアル謎解きゲーム 城之内レイコの大阪なぞガイド</t>
+  </si>
+  <si>
+    <t>JR西日本实时谜题解答游戏 大阪谜之导游</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Realtime-Nazotoki-Osaka.png</t>
+  </si>
+  <si>
+    <t>ONE-KANSAI-Kyoto-Manzoku-3way-Pass</t>
+  </si>
+  <si>
+    <t>ONE KANSAI 京都満喫3wayパス</t>
+  </si>
+  <si>
+    <t>ONE KANSAI 京都畅游3路通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/ONE-KANSAI-Kyoto-Manzoku-3way-Pass.png</t>
+  </si>
+  <si>
+    <t>ONE-KANSAI-Nara-Digital-FreePass</t>
+  </si>
+  <si>
+    <t>ONE KANSAI 奈良デジタル周遊フリーパス</t>
+  </si>
+  <si>
+    <t>ONE KANSAI 奈良数字周游自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/ONE-KANSAI-Nara-Digital-FreePass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Kyoto-Tango-Odekake-Pass</t>
+  </si>
+  <si>
+    <t>JR西日本×京都丹後鉄道 北近畿おでかけパス</t>
+  </si>
+  <si>
+    <t>JR西日本京都丹后铁路 北近畿出游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Kyoto-Tango-Odekake-Pass.png</t>
+  </si>
+  <si>
+    <t>Hirapa-GoGo-Ticket-JRWest</t>
+  </si>
+  <si>
+    <t>ひらパーGo！Go！チケット【JR西日本版】</t>
+  </si>
+  <si>
+    <t>ひらパーGo！Go！票【JR西日本版】</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hirapa-GoGo-Ticket-JRWest.png</t>
+  </si>
+  <si>
+    <t>JRWest-QR-2Day-Pass</t>
+  </si>
+  <si>
+    <t>JR西日本QR2dayパス</t>
+  </si>
+  <si>
+    <t>JR西日本QR两日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-QR-2Day-Pass.png</t>
+  </si>
+  <si>
+    <t>JRWest-Tabiwa-Kansai-QR-1Day</t>
+  </si>
+  <si>
+    <t>tabiwa関西エリアQR1dayパス</t>
+  </si>
+  <si>
+    <t>tabiwa关西地区QR一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRWest-Tabiwa-Kansai-QR-1Day.png</t>
+  </si>
+  <si>
+    <t>Autumn-Kyoto-Tamba-Odekake-Kippu</t>
+  </si>
+  <si>
+    <t>秋の京都丹波お出かけきっぷ</t>
+  </si>
+  <si>
+    <t>秋季京都丹波出游券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Autumn-Kyoto-Tamba-Odekake-Kippu.png</t>
+  </si>
+  <si>
+    <t>Kinosaki-Onsen-Amanohashidate-Walk-Pass</t>
+  </si>
+  <si>
+    <t>城崎温泉・天橋立周遊パス</t>
+  </si>
+  <si>
+    <t>城崎温泉·天桥立周游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kinosaki-Onsen-Amanohashidate-Walk-Pass.png</t>
+  </si>
+  <si>
+    <t>Keihan-JR-Kobe-Suma-Sea-World-1Day-Pass</t>
+  </si>
+  <si>
+    <t>京阪・JR西日本 神戸須磨シーワールド1dayパス</t>
+  </si>
+  <si>
+    <t>京阪·JR西日本神户须磨海洋世界一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Keihan-JR-Kobe-Suma-Sea-World-1Day-Pass.png</t>
+  </si>
+  <si>
+    <t>ONE-KANSAI-Wakayama-2Way-Pass</t>
+  </si>
+  <si>
+    <t>ONE KANSAI 和歌山2wayパス</t>
+  </si>
+  <si>
+    <t>ONE KANSAI 和歌山双路线通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/ONE-KANSAI-Wakayama-2Way-Pass.png</t>
+  </si>
+  <si>
+    <t>Hankyu-JRWest-Kyoto-2Way-Pass</t>
+  </si>
+  <si>
+    <t>阪急・ＪＲ西日本 京都2wayパス</t>
+  </si>
+  <si>
+    <t>阪急·JR西日本京都双路线通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hankyu-JRWest-Kyoto-2Way-Pass.png</t>
+  </si>
+  <si>
+    <t>Iga-Railway-1Day-Free</t>
+  </si>
+  <si>
+    <t>伊賀鉄道一日フリー乗車券</t>
+  </si>
+  <si>
+    <t>伊贺铁道一日自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Iga-Railway-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Iga-Railway-Shuriken-1Day-Free</t>
+  </si>
+  <si>
+    <t>【手裏剣体験＆ほうじ茶サービス付き】伊賀鉄道一日フリー乗車券</t>
+  </si>
+  <si>
+    <t>（附手里剑体验&amp;焙茶服务）伊贺铁道一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Iga-Railway-Shuriken-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Iga-Railway-Latteart-1Day-Free</t>
+  </si>
+  <si>
+    <t>【忍者ラテアートサービス付き】伊賀鉄道一日フリー乗車券</t>
+  </si>
+  <si>
+    <t>（附忍者拉花服务）伊贺铁道一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Iga-Railway-Latteart-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Iga-Railway-Hanasakarin-Special</t>
+  </si>
+  <si>
+    <t>【花咲かりん1.000円以上お買上げ特典付き】伊賀鉄道一日フリー乗車券</t>
+  </si>
+  <si>
+    <t>（附花咲卡琳1000日元以上购票特典）伊贺铁道一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Iga-Railway-Hanasakarin-Special.png</t>
+  </si>
+  <si>
+    <t>Iga-Railway-Magnet-1Day-Free</t>
+  </si>
+  <si>
+    <t>【電車型マグネット付き】伊賀鉄道一日フリー乗車券</t>
+  </si>
+  <si>
+    <t>（附电车形磁铁）伊贺铁道一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Iga-Railway-Magnet-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Iga-Railway-Sake-Coin-1Day-Free</t>
+  </si>
+  <si>
+    <t>【伊賀酒試飲コイン付き】伊賀鉄道一日フリー乗車券</t>
+  </si>
+  <si>
+    <t>（附伊贺酒试饮币）伊贺铁道一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Iga-Railway-Sake-Coin-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Iga-Railway-Ninja-Museum-1Day</t>
+  </si>
+  <si>
+    <t>【★伊賀流忍者博物館★入場券付き】伊賀鉄道一日フリー乗車券</t>
+  </si>
+  <si>
+    <t>（附★伊贺流忍者博物馆★入场券）伊贺铁道一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Iga-Railway-Ninja-Museum-1Day.png</t>
+  </si>
+  <si>
+    <t>Omi-Railway-1Day-Smile-Ticket</t>
+  </si>
+  <si>
+    <t>１デイ・スマイルチケット</t>
+  </si>
+  <si>
+    <t>近江铁道一日微笑票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Omi-Railway-1Day-Smile-Ticket.png</t>
+  </si>
+  <si>
+    <t>Omi-Manzoku-Pass</t>
+  </si>
+  <si>
+    <t>お～み満喫パス</t>
+  </si>
+  <si>
+    <t>近江畅游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Omi-Manzoku-Pass.png</t>
+  </si>
+  <si>
+    <t>Biwako-Keihanna-Line-Free-Kippu</t>
+  </si>
+  <si>
+    <t>びわこ京阪奈線フリーキップ</t>
+  </si>
+  <si>
+    <t>琵琶湖京阪奈线自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Biwako-Keihanna-Line-Free-Kippu.png</t>
+  </si>
+  <si>
+    <t>Omi-Railway-Coroplra-1Day</t>
+  </si>
+  <si>
+    <t>近江鉄道☆コロプラ１日乗車券</t>
+  </si>
+  <si>
+    <t>近江铁道☆Coroplra一日乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Omi-Railway-Coroplra-1Day.png</t>
+  </si>
+  <si>
+    <t>Shigaraki-Highland-Tetsudo-Free</t>
+  </si>
+  <si>
+    <t>信楽高原鐵道フリー乗車券</t>
+  </si>
+  <si>
+    <t>信楽高原铁道自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shigaraki-Highland-Tetsudo-Free.png</t>
+  </si>
+  <si>
+    <t>Koka-CommunityBus-Shigaraki-Rail-Free</t>
+  </si>
+  <si>
+    <t>甲賀市コミュニティバス＋信楽高原鐵道 フリー乗車券</t>
+  </si>
+  <si>
+    <t>甲贺市社区巴士+信楽高原铁道自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Koka-CommunityBus-Shigaraki-Rail-Free.png</t>
+  </si>
+  <si>
+    <t>Kyoto-City-Transportation-1Day</t>
+  </si>
+  <si>
+    <t>地下鉄・バス一日券</t>
+  </si>
+  <si>
+    <t>京都市地铁·巴士一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kyoto-City-Transportation-1Day.png</t>
+  </si>
+  <si>
+    <t>Kyoto-City-Subway-1Day</t>
+  </si>
+  <si>
+    <t>地下鉄一日券</t>
+  </si>
+  <si>
+    <t>京都市地铁一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kyoto-City-Subway-1Day.png</t>
+  </si>
+  <si>
+    <t>Eizan-Railway-One-Kippu</t>
+  </si>
+  <si>
+    <t>えぇきっぷ</t>
+  </si>
+  <si>
+    <t>叡山电车一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Eizan-Railway-One-Kippu.png</t>
+  </si>
+  <si>
+    <t>Eizan-Rakuhoku-Forest-Water-Pass</t>
+  </si>
+  <si>
+    <t>京都洛北・森と水のきっぷ</t>
+  </si>
+  <si>
+    <t>京都洛北·森林与水通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Eizan-Rakuhoku-Forest-Water-Pass.png</t>
+  </si>
+  <si>
+    <t>Randen-OneDay-Pass</t>
+  </si>
+  <si>
+    <t>嵐電1日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>嵐电一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Randen-OneDay-Pass.png</t>
+  </si>
+  <si>
+    <t>Randen-Movie-Village-Set-Ticket</t>
+  </si>
+  <si>
+    <t>嵐電・映画村セット券</t>
+  </si>
+  <si>
+    <t>嵐电·电影村套票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Randen-Movie-Village-Set-Ticket.png</t>
+  </si>
+  <si>
+    <t>Tantetsu-Kaiyo-Kyoto-Amanohashidate-Ine-Free</t>
+  </si>
+  <si>
+    <t>海の京都 天橋立・伊根フリーパス</t>
+  </si>
+  <si>
+    <t>海之京都 天桥立·伊根自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tantetsu-Kaiyo-Kyoto-Amanohashidate-Ine-Free.png</t>
+  </si>
+  <si>
+    <t>Tantetsu-OneDay-Pass</t>
+  </si>
+  <si>
+    <t>京都丹後鉄道ワンデーパス</t>
+  </si>
+  <si>
+    <t>京都丹後铁路一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tantetsu-OneDay-Pass.png</t>
+  </si>
+  <si>
+    <t>Tantetsu-Koufuku-Pass</t>
+  </si>
+  <si>
+    <t>幸福パス</t>
+  </si>
+  <si>
+    <t>幸福通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tantetsu-Koufuku-Pass.png</t>
+  </si>
+  <si>
+    <t>Tankai-Tango-Amanohashidate-Ine-Free</t>
+  </si>
+  <si>
+    <t>丹後天橋立伊根フリー</t>
+  </si>
+  <si>
+    <t>丹后天桥立·伊根自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Tankai-Tango-Amanohashidate-Ine-Free.png</t>
+  </si>
+  <si>
+    <t>Kintetsu-Kobe-City-Tour-1Day-Coupon</t>
+  </si>
+  <si>
+    <t>神戸街めぐり1dayクーポン</t>
+  </si>
+  <si>
+    <t>神户市区游一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kintetsu-Kobe-City-Tour-1Day-Coupon.png</t>
+  </si>
+  <si>
+    <t>Kintetsu-Weekend-Free-Pass</t>
+  </si>
+  <si>
+    <t>近鉄週末フリーパス</t>
+  </si>
+  <si>
+    <t>近铁周末自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kintetsu-Weekend-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>Koyasan-Odekake-Kippu</t>
+  </si>
+  <si>
+    <t>高野山おでかけきっぷ</t>
+  </si>
+  <si>
+    <t>高野山出游券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Koyasan-Odekake-Kippu.png</t>
+  </si>
+  <si>
+    <t>Hirapa-GoGo-Ticket</t>
+  </si>
+  <si>
+    <t>ひらパーGo!Go!チケット</t>
+  </si>
+  <si>
+    <t>枚方乐园Go!Go!票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hirapa-GoGo-Ticket.png</t>
+  </si>
+  <si>
+    <t>Osaka-Metro-Enjoi-Eco-Card</t>
+  </si>
+  <si>
+    <t>エンジョイエコカード</t>
+  </si>
+  <si>
+    <t>大阪地铁享乐环保卡</t>
+  </si>
+  <si>
+    <t>/images/coverage/Osaka-Metro-Enjoi-Eco-Card.png</t>
+  </si>
+  <si>
+    <t>Osaka-Metro-Kita-Kyu-Train-1Day-Pass</t>
+  </si>
+  <si>
+    <t>Osaka Metro＆Kita-kyu Train Pass 1day</t>
+  </si>
+  <si>
+    <t>大阪地铁&amp;北急列车一日乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Osaka-Metro-Kita-Kyu-Train-1Day-Pass.png</t>
+  </si>
+  <si>
+    <t>Nankai-Sakai-Odekake-Free-Pass</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nankai-Sakai-Odekake-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>Hankai-Take-Take-Kippu</t>
+  </si>
+  <si>
+    <t>TAKE TAKEきっぷ(１日乗車券)</t>
+  </si>
+  <si>
+    <t>阪堺电车Take Take一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hankai-Take-Take-Kippu.png</t>
+  </si>
+  <si>
+    <t>Hankai-Trip-Ticket</t>
+  </si>
+  <si>
+    <t>トリップチケット</t>
+  </si>
+  <si>
+    <t>阪堺电车旅行票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hankai-Trip-Ticket.png</t>
+  </si>
+  <si>
+    <t>Sakai-Omotenashi-Ticket-Hankai-Expanded</t>
+  </si>
+  <si>
+    <t>堺おもてなしチケット「阪堺拡大版」</t>
+  </si>
+  <si>
+    <t>堺款待券（阪堺扩展版）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Sakai-Omotenashi-Ticket-Hankai-Expanded.png</t>
+  </si>
+  <si>
+    <t>Sakai-Omotenashi-Ticket-Nankai-Expanded</t>
+  </si>
+  <si>
+    <t>堺おもてなしチケット「南海バス拡大版」</t>
+  </si>
+  <si>
+    <t>堺款待券（南海巴士扩展版）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Sakai-Omotenashi-Ticket-Nankai-Expanded.png</t>
+  </si>
+  <si>
+    <t>Mizuma-Tetsudo-1Day-Free</t>
+  </si>
+  <si>
+    <t>鉄道１日フリー乗車券</t>
+  </si>
+  <si>
+    <t>水间铁道一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Mizuma-Tetsudo-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Mizuma-Daytime-Discount-Free</t>
+  </si>
+  <si>
+    <t>昼間割引フリー乗車券</t>
+  </si>
+  <si>
+    <t>昼间割引自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Mizuma-Daytime-Discount-Free.png</t>
+  </si>
+  <si>
+    <t>Wakayama-Dentetsu-Kishi-Line-1Day</t>
+  </si>
+  <si>
+    <t>貴志川線１日乗車券</t>
+  </si>
+  <si>
+    <t>和歌山电铁贵志川线一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Wakayama-Dentetsu-Kishi-Line-1Day.png</t>
+  </si>
+  <si>
+    <t>Wakayama-Dentetsu-Kishi-Line-Mobile</t>
+  </si>
+  <si>
+    <t>貴志川線スマホ１日乗車券</t>
+  </si>
+  <si>
+    <t>和歌山电铁贵志川线手机电子一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Wakayama-Dentetsu-Kishi-Line-Mobile.png</t>
+  </si>
+  <si>
+    <t>Kobe-Shintetsu-Common-1Day-Pass</t>
+  </si>
+  <si>
+    <t>共通１日乗車券</t>
+  </si>
+  <si>
+    <t>神户新交通一日共通乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kobe-Shintetsu-Common-1Day-Pass.png</t>
+  </si>
+  <si>
+    <t>Portliner-Exclusive-1Day</t>
+  </si>
+  <si>
+    <t>ポートライナー専用１日乗車券</t>
+  </si>
+  <si>
+    <t>港湾新交通Portliner一日专用券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Portliner-Exclusive-1Day.png</t>
+  </si>
+  <si>
+    <t>Rokko-Liner-Exclusive-1Day</t>
+  </si>
+  <si>
+    <t>六甲ライナー専用１日乗車券</t>
+  </si>
+  <si>
+    <t>六甲Liner一日专用券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Rokko-Liner-Exclusive-1Day.png</t>
+  </si>
+  <si>
+    <t>Kobe-City-Tour-1Day-Coupon</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kobe-City-Tour-1Day-Coupon.png</t>
+  </si>
+  <si>
+    <t>Kobe-City-Bus-Subway-1Day</t>
+  </si>
+  <si>
+    <t>市バス・地下鉄共通１日乗車券</t>
+  </si>
+  <si>
+    <t>神户市公交·地铁共通一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kobe-City-Bus-Subway-1Day.png</t>
+  </si>
+  <si>
+    <t>Kyoto-Arashiyama-1Day-Pass</t>
+  </si>
+  <si>
+    <t>京都・嵐山1dayパス</t>
+  </si>
+  <si>
+    <t>京都·岚山一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kyoto-Arashiyama-1Day-Pass.png</t>
+  </si>
+  <si>
+    <t>Hankyu-Hanshin-1Day-Pass</t>
+  </si>
+  <si>
+    <t>阪急阪神1dayパス</t>
+  </si>
+  <si>
+    <t>阪急阪神一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hankyu-Hanshin-1Day-Pass.png</t>
+  </si>
+  <si>
+    <t>Hanshin-Sanyo-Seaside-1Day</t>
+  </si>
+  <si>
+    <t>阪神・山陽シーサイド1dayチケット</t>
+  </si>
+  <si>
+    <t>阪神·山阳海滨一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Hanshin-Sanyo-Seaside-1Day.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,6 +886,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,9 +915,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -535,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA152"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -551,7 +1275,7 @@
     <col min="14" max="14" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -586,13 +1310,13 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
@@ -634,42 +1358,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:29">
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
-        <v>830</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>420</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -683,14 +1383,11 @@
       <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
+      <c r="T2" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="W2" t="s">
         <v>23</v>
@@ -699,7 +1396,7 @@
         <v>23</v>
       </c>
       <c r="Y2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Z2">
         <v>3</v>
@@ -707,71 +1404,911 @@
       <c r="AA2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="11:13">
+      <c r="AC2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="B8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="B11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="B13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="T20" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="11:13">
+      <c r="T21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="B22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="11:13">
+      <c r="T22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="B23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="11:13">
+      <c r="T23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="B24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="11:13">
+      <c r="T24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="B25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="11:13">
+      <c r="T25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="B26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="11:13">
+      <c r="T26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="B27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="11:13">
+      <c r="T27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="B28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="11:13">
+      <c r="T28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="B29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="11:13">
+      <c r="T29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="B30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="11:13">
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="T30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="B31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="B32" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29">
+      <c r="B33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29">
+      <c r="B34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29">
+      <c r="B35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29">
+      <c r="B36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29">
+      <c r="B37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29">
+      <c r="B38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29">
+      <c r="B39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29">
+      <c r="B40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29">
+      <c r="B41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29">
+      <c r="B42" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29">
+      <c r="B43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29">
+      <c r="B44" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29">
+      <c r="B45" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29">
+      <c r="B46" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29">
+      <c r="B47" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29">
+      <c r="B48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29">
+      <c r="B49" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="2:29">
+      <c r="B50" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29">
+      <c r="B51" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="2:29">
+      <c r="B52" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="2:29">
+      <c r="B53" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="2:29">
+      <c r="B54" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="2:29">
+      <c r="B55" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="2:29">
+      <c r="B56" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="2:29">
+      <c r="B57" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29">
+      <c r="B58" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="2:29">
+      <c r="B59" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="2:29">
+      <c r="B60" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC60" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="2:29">
+      <c r="B61" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="2:29">
+      <c r="B62" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29">
+      <c r="B63" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" spans="11:13">
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
     </row>
     <row r="97" spans="11:13">
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
+      <c r="K97">
+        <v>2330</v>
+      </c>
     </row>
     <row r="98" spans="11:13">
-      <c r="K98">
-        <v>2330</v>
-      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
     </row>
     <row r="99" spans="11:13">
       <c r="K99" s="1"/>
@@ -1037,11 +2574,6 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
-    </row>
-    <row r="152" spans="11:13">
-      <c r="K152" s="1"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/kinki.xlsx
+++ b/src/excel-data/kinki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFB6ADD-7224-814C-BE82-D984AC297D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F593FE4-AAF8-D646-9BC6-545B4D91D50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="198">
   <si>
     <t>sortOrder</t>
   </si>
@@ -922,6 +922,10 @@
   </si>
   <si>
     <t>/images/coverage/Hojo-Railway-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>ticket_note</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1354,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC108"/>
+  <dimension ref="A1:AJ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1371,7 +1375,7 @@
     <col min="14" max="14" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18">
+    <row r="1" spans="1:36" ht="18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1453,8 +1457,11 @@
       <c r="AA1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AB1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1506,11 +1513,11 @@
       <c r="AA2" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:36">
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1541,11 +1548,11 @@
       <c r="T3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:36">
       <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
@@ -1576,11 +1583,11 @@
       <c r="T4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:36">
       <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
@@ -1611,11 +1618,11 @@
       <c r="T5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:36">
       <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
@@ -1646,11 +1653,11 @@
       <c r="T6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:36">
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
@@ -1684,11 +1691,11 @@
       <c r="T7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:36">
       <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
@@ -1722,11 +1729,11 @@
       <c r="T8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:36">
       <c r="B9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1762,11 +1769,11 @@
       <c r="T9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AJ9" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:36">
       <c r="B10" s="2" t="s">
         <v>65</v>
       </c>
@@ -1800,11 +1807,11 @@
       <c r="T10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:36">
       <c r="B11" s="2" t="s">
         <v>69</v>
       </c>
@@ -1835,11 +1842,11 @@
       <c r="T11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:36">
       <c r="B12" s="2" t="s">
         <v>73</v>
       </c>
@@ -1873,11 +1880,11 @@
       <c r="T12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AJ12" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:36">
       <c r="B13" s="2" t="s">
         <v>77</v>
       </c>
@@ -1911,11 +1918,11 @@
       <c r="T13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AJ13" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:36">
       <c r="B14" s="2" t="s">
         <v>81</v>
       </c>
@@ -1949,11 +1956,11 @@
       <c r="T14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AJ14" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:36">
       <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
@@ -1984,11 +1991,11 @@
       <c r="T15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AJ15" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:36">
       <c r="B16" s="2" t="s">
         <v>89</v>
       </c>
@@ -2019,11 +2026,11 @@
       <c r="T16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AC16" s="2" t="s">
+      <c r="AJ16" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="2:29">
+    <row r="17" spans="2:36">
       <c r="B17" s="2" t="s">
         <v>93</v>
       </c>
@@ -2039,11 +2046,11 @@
       <c r="T17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AJ17" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="2:29">
+    <row r="18" spans="2:36">
       <c r="B18" s="2" t="s">
         <v>97</v>
       </c>
@@ -2056,11 +2063,11 @@
       <c r="T18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AJ18" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="2:29">
+    <row r="19" spans="2:36">
       <c r="B19" s="2" t="s">
         <v>101</v>
       </c>
@@ -2091,11 +2098,11 @@
       <c r="T19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AC19" s="2" t="s">
+      <c r="AJ19" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="2:29">
+    <row r="20" spans="2:36">
       <c r="B20" s="2" t="s">
         <v>105</v>
       </c>
@@ -2129,11 +2136,11 @@
       <c r="T20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" s="2" t="s">
+      <c r="AJ20" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:29">
+    <row r="21" spans="2:36">
       <c r="B21" s="2" t="s">
         <v>109</v>
       </c>
@@ -2164,11 +2171,11 @@
       <c r="T21" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AC21" s="2" t="s">
+      <c r="AJ21" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="2:29" ht="19">
+    <row r="22" spans="2:36" ht="19">
       <c r="B22" s="2" t="s">
         <v>109</v>
       </c>
@@ -2199,11 +2206,11 @@
       <c r="T22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AC22" s="2" t="s">
+      <c r="AJ22" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="2:29" ht="14" customHeight="1">
+    <row r="23" spans="2:36" ht="14" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>113</v>
       </c>
@@ -2234,11 +2241,11 @@
       <c r="T23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AC23" s="2" t="s">
+      <c r="AJ23" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="2:29">
+    <row r="24" spans="2:36">
       <c r="B24" s="2" t="s">
         <v>117</v>
       </c>
@@ -2269,11 +2276,11 @@
       <c r="T24" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="AC24" s="2" t="s">
+      <c r="AJ24" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="2:29" ht="19">
+    <row r="25" spans="2:36" ht="19">
       <c r="B25" s="2" t="s">
         <v>165</v>
       </c>
@@ -2290,11 +2297,11 @@
       <c r="T25" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AJ25" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="2:29" ht="19">
+    <row r="26" spans="2:36" ht="19">
       <c r="B26" s="2" t="s">
         <v>120</v>
       </c>
@@ -2325,11 +2332,11 @@
       <c r="T26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AC26" s="2" t="s">
+      <c r="AJ26" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="2:29" ht="19">
+    <row r="27" spans="2:36" ht="19">
       <c r="B27" s="2" t="s">
         <v>120</v>
       </c>
@@ -2360,11 +2367,11 @@
       <c r="T27" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AC27" s="2" t="s">
+      <c r="AJ27" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:29" ht="19">
+    <row r="28" spans="2:36" ht="19">
       <c r="B28" s="2" t="s">
         <v>120</v>
       </c>
@@ -2401,11 +2408,11 @@
       <c r="T28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AC28" s="2" t="s">
+      <c r="AJ28" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="2:29" ht="19">
+    <row r="29" spans="2:36" ht="19">
       <c r="B29" s="2" t="s">
         <v>184</v>
       </c>
@@ -2436,11 +2443,11 @@
       <c r="T29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AC29" s="2" t="s">
+      <c r="AJ29" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="2:29">
+    <row r="30" spans="2:36">
       <c r="B30" s="2" t="s">
         <v>125</v>
       </c>
@@ -2471,11 +2478,11 @@
       <c r="T30" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AC30" s="2" t="s">
+      <c r="AJ30" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="2:29">
+    <row r="31" spans="2:36">
       <c r="B31" s="2" t="s">
         <v>170</v>
       </c>
@@ -2506,11 +2513,11 @@
       <c r="T31" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AC31" s="2" t="s">
+      <c r="AJ31" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="2:29">
+    <row r="32" spans="2:36">
       <c r="B32" s="2" t="s">
         <v>128</v>
       </c>
@@ -2541,11 +2548,11 @@
       <c r="T32" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AC32" s="2" t="s">
+      <c r="AJ32" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="2:29">
+    <row r="33" spans="2:36">
       <c r="B33" s="2" t="s">
         <v>131</v>
       </c>
@@ -2576,11 +2583,11 @@
       <c r="T33" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AC33" s="2" t="s">
+      <c r="AJ33" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="2:29">
+    <row r="34" spans="2:36">
       <c r="B34" s="2" t="s">
         <v>177</v>
       </c>
@@ -2611,11 +2618,11 @@
       <c r="T34" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AC34" s="2" t="s">
+      <c r="AJ34" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="2:29">
+    <row r="35" spans="2:36">
       <c r="B35" s="2" t="s">
         <v>179</v>
       </c>
@@ -2646,11 +2653,11 @@
       <c r="T35" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AC35" s="2" t="s">
+      <c r="AJ35" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="2:29">
+    <row r="36" spans="2:36">
       <c r="B36" s="2" t="s">
         <v>181</v>
       </c>
@@ -2681,11 +2688,11 @@
       <c r="T36" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AC36" s="2" t="s">
+      <c r="AJ36" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="2:29">
+    <row r="37" spans="2:36">
       <c r="B37" s="2" t="s">
         <v>139</v>
       </c>
@@ -2713,11 +2720,11 @@
       <c r="T37" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AC37" s="2" t="s">
+      <c r="AJ37" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="2:29">
+    <row r="38" spans="2:36">
       <c r="B38" s="2" t="s">
         <v>142</v>
       </c>
@@ -2748,11 +2755,11 @@
       <c r="T38" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AC38" s="2" t="s">
+      <c r="AJ38" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="2:29">
+    <row r="39" spans="2:36">
       <c r="B39" s="2" t="s">
         <v>146</v>
       </c>
@@ -2783,11 +2790,11 @@
       <c r="T39" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AC39" s="2" t="s">
+      <c r="AJ39" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="2:29">
+    <row r="40" spans="2:36">
       <c r="B40" s="2" t="s">
         <v>191</v>
       </c>
@@ -2818,11 +2825,11 @@
       <c r="T40" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AC40" s="2" t="s">
+      <c r="AJ40" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="2:29">
+    <row r="41" spans="2:36">
       <c r="B41" s="2" t="s">
         <v>150</v>
       </c>
@@ -2853,11 +2860,11 @@
       <c r="T41" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AC41" s="2" t="s">
+      <c r="AJ41" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="2:29">
+    <row r="42" spans="2:36">
       <c r="B42" s="2" t="s">
         <v>154</v>
       </c>
@@ -2888,11 +2895,11 @@
       <c r="T42" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AC42" s="2" t="s">
+      <c r="AJ42" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="2:29">
+    <row r="43" spans="2:36">
       <c r="B43" s="2" t="s">
         <v>158</v>
       </c>
@@ -2920,11 +2927,11 @@
       <c r="T43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AC43" s="2" t="s">
+      <c r="AJ43" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="2:29">
+    <row r="44" spans="2:36">
       <c r="B44" s="2" t="s">
         <v>193</v>
       </c>
@@ -2955,7 +2962,7 @@
       <c r="T44" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="AC44" s="2" t="s">
+      <c r="AJ44" s="2" t="s">
         <v>194</v>
       </c>
     </row>

--- a/src/excel-data/kinki.xlsx
+++ b/src/excel-data/kinki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F593FE4-AAF8-D646-9BC6-545B4D91D50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF9756D-09C6-3D4B-89F8-34EEA8AA2241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="近畿周游券" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="193">
   <si>
     <t>sortOrder</t>
   </si>
@@ -28,9 +28,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>price_adult_regular</t>
   </si>
   <si>
@@ -92,27 +89,12 @@
   </si>
   <si>
     <t>全年可用</t>
-  </si>
-  <si>
-    <t>北海道</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>地铁</t>
-  </si>
-  <si>
-    <t>city</t>
   </si>
   <si>
     <t>bestFor</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>现金支付; 购票机可购买</t>
-  </si>
-  <si>
     <t>price_over65</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -125,99 +107,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JRWest-Nara-Manzoku-FreePass</t>
-  </si>
-  <si>
-    <t>奈良満喫フリーきっぷ</t>
-  </si>
-  <si>
-    <t>奈良畅游自由通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRWest-Nara-Manzoku-FreePass.png</t>
-  </si>
-  <si>
     <t>Iga-Railway-1Day-Free</t>
   </si>
   <si>
-    <t>伊賀鉄道一日フリー乗車券</t>
-  </si>
-  <si>
-    <t>伊贺铁道一日自由乘车券</t>
-  </si>
-  <si>
     <t>/images/coverage/Iga-Railway-1Day-Free.png</t>
   </si>
   <si>
     <t>Iga-Railway-Shuriken-1Day-Free</t>
   </si>
   <si>
-    <t>【手裏剣体験＆ほうじ茶サービス付き】伊賀鉄道一日フリー乗車券</t>
-  </si>
-  <si>
-    <t>（附手里剑体验&amp;焙茶服务）伊贺铁道一日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Iga-Railway-Shuriken-1Day-Free.png</t>
   </si>
   <si>
     <t>Iga-Railway-Latteart-1Day-Free</t>
   </si>
   <si>
-    <t>【忍者ラテアートサービス付き】伊賀鉄道一日フリー乗車券</t>
-  </si>
-  <si>
-    <t>（附忍者拉花服务）伊贺铁道一日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Iga-Railway-Latteart-1Day-Free.png</t>
   </si>
   <si>
     <t>Iga-Railway-Hanasakarin-Special</t>
   </si>
   <si>
-    <t>【花咲かりん1.000円以上お買上げ特典付き】伊賀鉄道一日フリー乗車券</t>
-  </si>
-  <si>
-    <t>（附花咲卡琳1000日元以上购票特典）伊贺铁道一日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Iga-Railway-Hanasakarin-Special.png</t>
   </si>
   <si>
     <t>Iga-Railway-Magnet-1Day-Free</t>
   </si>
   <si>
-    <t>【電車型マグネット付き】伊賀鉄道一日フリー乗車券</t>
-  </si>
-  <si>
-    <t>（附电车形磁铁）伊贺铁道一日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Iga-Railway-Magnet-1Day-Free.png</t>
   </si>
   <si>
     <t>Iga-Railway-Sake-Coin-1Day-Free</t>
   </si>
   <si>
-    <t>【伊賀酒試飲コイン付き】伊賀鉄道一日フリー乗車券</t>
-  </si>
-  <si>
-    <t>（附伊贺酒试饮币）伊贺铁道一日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Iga-Railway-Sake-Coin-1Day-Free.png</t>
   </si>
   <si>
     <t>Iga-Railway-Ninja-Museum-1Day</t>
   </si>
   <si>
-    <t>【★伊賀流忍者博物館★入場券付き】伊賀鉄道一日フリー乗車券</t>
-  </si>
-  <si>
-    <t>（附★伊贺流忍者博物馆★入场券）伊贺铁道一日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Iga-Railway-Ninja-Museum-1Day.png</t>
   </si>
   <si>
@@ -227,9 +155,6 @@
     <t>１デイ・スマイルチケット</t>
   </si>
   <si>
-    <t>近江铁道一日微笑票</t>
-  </si>
-  <si>
     <t>/images/coverage/Omi-Railway-1Day-Smile-Ticket.png</t>
   </si>
   <si>
@@ -251,9 +176,6 @@
     <t>びわこ京阪奈線フリーキップ</t>
   </si>
   <si>
-    <t>琵琶湖京阪奈线自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Biwako-Keihanna-Line-Free-Kippu.png</t>
   </si>
   <si>
@@ -263,9 +185,6 @@
     <t>信楽高原鐵道フリー乗車券</t>
   </si>
   <si>
-    <t>信楽高原铁道自由乘车券</t>
-  </si>
-  <si>
     <t>/images/coverage/Shigaraki-Highland-Tetsudo-Free.png</t>
   </si>
   <si>
@@ -275,33 +194,18 @@
     <t>甲賀市コミュニティバス＋信楽高原鐵道 フリー乗車券</t>
   </si>
   <si>
-    <t>甲贺市社区巴士+信楽高原铁道自由乘车券</t>
-  </si>
-  <si>
     <t>/images/coverage/Koka-CommunityBus-Shigaraki-Rail-Free.png</t>
   </si>
   <si>
     <t>Kyoto-City-Transportation-1Day</t>
   </si>
   <si>
-    <t>地下鉄・バス一日券</t>
-  </si>
-  <si>
-    <t>京都市地铁·巴士一日券</t>
-  </si>
-  <si>
     <t>/images/coverage/Kyoto-City-Transportation-1Day.png</t>
   </si>
   <si>
     <t>Kyoto-City-Subway-1Day</t>
   </si>
   <si>
-    <t>地下鉄一日券</t>
-  </si>
-  <si>
-    <t>京都市地铁一日券</t>
-  </si>
-  <si>
     <t>/images/coverage/Kyoto-City-Subway-1Day.png</t>
   </si>
   <si>
@@ -311,9 +215,6 @@
     <t>えぇきっぷ</t>
   </si>
   <si>
-    <t>叡山电车一日券</t>
-  </si>
-  <si>
     <t>/images/coverage/Eizan-Railway-One-Kippu.png</t>
   </si>
   <si>
@@ -335,9 +236,6 @@
     <t>嵐電1日フリーきっぷ</t>
   </si>
   <si>
-    <t>嵐电一日自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Randen-OneDay-Pass.png</t>
   </si>
   <si>
@@ -359,9 +257,6 @@
     <t>海の京都 天橋立・伊根フリーパス</t>
   </si>
   <si>
-    <t>海之京都 天桥立·伊根自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Tantetsu-Kaiyo-Kyoto-Amanohashidate-Ine-Free.png</t>
   </si>
   <si>
@@ -371,9 +266,6 @@
     <t>京都丹後鉄道ワンデーパス</t>
   </si>
   <si>
-    <t>京都丹後铁路一日通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Tantetsu-OneDay-Pass.png</t>
   </si>
   <si>
@@ -398,9 +290,6 @@
     <t>神戸街めぐり1dayクーポン</t>
   </si>
   <si>
-    <t>神户市区游一日券</t>
-  </si>
-  <si>
     <t>Kintetsu-Weekend-Free-Pass</t>
   </si>
   <si>
@@ -458,9 +347,6 @@
     <t>貴志川線１日乗車券</t>
   </si>
   <si>
-    <t>和歌山电铁贵志川线一日券</t>
-  </si>
-  <si>
     <t>/images/coverage/Wakayama-Dentetsu-Kishi-Line-1Day.png</t>
   </si>
   <si>
@@ -482,9 +368,6 @@
     <t>ポートライナー専用１日乗車券</t>
   </si>
   <si>
-    <t>港湾新交通Portliner一日专用券</t>
-  </si>
-  <si>
     <t>/images/coverage/Portliner-Exclusive-1Day.png</t>
   </si>
   <si>
@@ -494,9 +377,6 @@
     <t>六甲ライナー専用１日乗車券</t>
   </si>
   <si>
-    <t>六甲Liner一日专用券</t>
-  </si>
-  <si>
     <t>/images/coverage/Rokko-Liner-Exclusive-1Day.png</t>
   </si>
   <si>
@@ -504,211 +384,6 @@
   </si>
   <si>
     <t>/images/coverage/Kobe-City-Tour-1Day-Coupon.png</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>海之京都</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>桥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>伊根自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>丹后天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>桥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>伊根自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>丹后天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>桥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>伊根自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>京丹后铁路家庭出游券</t>
   </si>
   <si>
     <r>
@@ -760,76 +435,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>丹后天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>桥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>伊根自由通票</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Keihan-Osaka-Kyoto-1Day-Pass</t>
   </si>
   <si>
     <t>京阪電車 大阪・京都1日乗車券</t>
   </si>
   <si>
-    <t>京阪电车大阪·京都一日乘车券</t>
-  </si>
-  <si>
     <t>/images/coverage/Keihan-Osaka-Kyoto-1Day-Pass.png</t>
   </si>
   <si>
     <t>京阪電車 京都1日乗車券</t>
   </si>
   <si>
-    <t>京阪电车京都一日乘车券</t>
-  </si>
-  <si>
     <t>/images/coverage/Keihan-Kyoto-1Day-Pass.png</t>
   </si>
   <si>
@@ -849,63 +466,15 @@
   </si>
   <si>
     <t>/images/coverage/Mizuma-Railway-OneDay-Free.png</t>
-  </si>
-  <si>
-    <t>神户新交通共通一日券</t>
   </si>
   <si>
     <t>Kintetsu-Weekend-FreePass</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>近</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>铁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>周末自由通票</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>阪堺Take Take一日乘车券</t>
-  </si>
-  <si>
     <t>阪堺旅行票</t>
   </si>
   <si>
-    <t>水间铁道一日自由乘车券</t>
-  </si>
-  <si>
-    <t>日间折扣自由乘车券</t>
-  </si>
-  <si>
-    <t>和歌山电铁贵志川线手机一日券</t>
-  </si>
-  <si>
     <t>Kobe-New-Transit-Common-OneDay</t>
   </si>
   <si>
@@ -916,9 +485,6 @@
   </si>
   <si>
     <t>１日フリーきっぷ</t>
-  </si>
-  <si>
-    <t>北条铁道一日自由通票</t>
   </si>
   <si>
     <t>/images/coverage/Hojo-Railway-1Day-Free.png</t>
@@ -926,13 +492,166 @@
   <si>
     <t>ticket_note</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊賀鉄道1日フリー乗車券</t>
+  </si>
+  <si>
+    <t>【手裏剣体験＆ほうじ茶サービス付き】伊賀鉄道1日フリー乗車券</t>
+  </si>
+  <si>
+    <t>【忍者ラテアートサービス付き】伊賀鉄道1日フリー乗車券</t>
+  </si>
+  <si>
+    <t>【花咲かりん1.000円以上お買上げ特典付き】伊賀鉄道1日フリー乗車券</t>
+  </si>
+  <si>
+    <t>【電車型マグネット付き】伊賀鉄道1日フリー乗車券</t>
+  </si>
+  <si>
+    <t>【伊賀酒試飲コイン付き】伊賀鉄道1日フリー乗車券</t>
+  </si>
+  <si>
+    <t>【★伊賀流忍者博物館★入場券付き】伊賀鉄道1日フリー乗車券</t>
+  </si>
+  <si>
+    <t>近江铁道1日微笑票</t>
+  </si>
+  <si>
+    <t>京都市地铁·巴士1日券</t>
+  </si>
+  <si>
+    <t>地下鉄・バス1日券</t>
+  </si>
+  <si>
+    <t>京都市地铁1日券</t>
+  </si>
+  <si>
+    <t>地下鉄1日券</t>
+  </si>
+  <si>
+    <t>叡山电车1日券</t>
+  </si>
+  <si>
+    <t>京都丹後铁路1日通票</t>
+  </si>
+  <si>
+    <t>和歌山电铁贵志川线1日券</t>
+  </si>
+  <si>
+    <t>和歌山电铁贵志川线手机1日券</t>
+  </si>
+  <si>
+    <t>神户新交通共通1日券</t>
+  </si>
+  <si>
+    <t>港湾新交通Portliner1日专用券</t>
+  </si>
+  <si>
+    <t>六甲Liner1日专用券</t>
+  </si>
+  <si>
+    <t>神户市区游1日券</t>
+  </si>
+  <si>
+    <t>京阪电车大阪·京都1日周游券</t>
+  </si>
+  <si>
+    <t>京阪电车京都1日周游券</t>
+  </si>
+  <si>
+    <t>阪堺Take Take1日周游券</t>
+  </si>
+  <si>
+    <t>伊贺铁道1日周游券</t>
+  </si>
+  <si>
+    <t>（附手里剑体验&amp;焙茶服务）伊贺铁道1日通票</t>
+  </si>
+  <si>
+    <t>（附忍者拉花服务）伊贺铁道1日通票</t>
+  </si>
+  <si>
+    <t>（附花咲卡琳1000日元以上购票特典）伊贺铁道1日通票</t>
+  </si>
+  <si>
+    <t>（附电车形磁铁）伊贺铁道1日通票</t>
+  </si>
+  <si>
+    <t>（附伊贺酒试饮币）伊贺铁道1日通票</t>
+  </si>
+  <si>
+    <t>（附★伊贺流忍者博物馆★入场券）伊贺铁道1日通票</t>
+  </si>
+  <si>
+    <t>琵琶湖京阪奈线通票</t>
+  </si>
+  <si>
+    <t>信楽高原铁道周游券</t>
+  </si>
+  <si>
+    <t>甲贺市社区巴士+信楽高原铁道周游券</t>
+  </si>
+  <si>
+    <t>嵐电1日券</t>
+  </si>
+  <si>
+    <t>海之京都 天桥立·伊根通票</t>
+  </si>
+  <si>
+    <t>海之京都 天桥立·伊根通票2</t>
+  </si>
+  <si>
+    <t>丹后天桥立·伊根通票1</t>
+  </si>
+  <si>
+    <t>丹后天桥立·伊根通票2</t>
+  </si>
+  <si>
+    <t>丹后天桥立·伊根通票</t>
+  </si>
+  <si>
+    <t>近铁周末通票</t>
+  </si>
+  <si>
+    <t>水间铁道1日周游券</t>
+  </si>
+  <si>
+    <t>日间折扣周游券</t>
+  </si>
+  <si>
+    <t>北条铁道1日通票</t>
+  </si>
+  <si>
+    <t>现金购票; 电子购票；车站购票；</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不问国籍所有游客皆可购买</t>
+  </si>
+  <si>
+    <t>普通电车</t>
+    <rPh sb="0" eb="4">
+      <t>dian che</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_cn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -983,18 +702,31 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <name val="黒体-簡 ミディアム"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黒体-簡 ミディアム"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1010,14 +742,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1358,171 +1091,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ108"/>
+  <dimension ref="A1:AJ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AE15" sqref="AE15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" customWidth="1"/>
     <col min="11" max="11" width="23.83203125" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="19.83203125" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" customWidth="1"/>
+    <col min="20" max="20" width="56.83203125" customWidth="1"/>
+    <col min="21" max="21" width="28.33203125" customWidth="1"/>
+    <col min="22" max="22" width="23.5" customWidth="1"/>
+    <col min="23" max="23" width="22.83203125" customWidth="1"/>
+    <col min="24" max="24" width="21" customWidth="1"/>
+    <col min="25" max="25" width="33" customWidth="1"/>
+    <col min="27" max="27" width="28.6640625" customWidth="1"/>
+    <col min="28" max="28" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="18">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>163</v>
+      <c r="C1" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="D1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
-        <v>21</v>
-      </c>
       <c r="AB1" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:36">
       <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="E2" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
+        <v>800</v>
+      </c>
+      <c r="G2">
+        <v>400</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="Z2">
         <v>3</v>
       </c>
-      <c r="AA2" t="s">
-        <v>22</v>
-      </c>
       <c r="AJ2" s="2" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:36">
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="E3" s="3">
         <v>800</v>
@@ -1530,34 +1263,37 @@
       <c r="G3">
         <v>400</v>
       </c>
-      <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
+      <c r="N3" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:36">
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="E4" s="3">
         <v>800</v>
@@ -1565,34 +1301,37 @@
       <c r="G4">
         <v>400</v>
       </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
+      <c r="N4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:36">
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>170</v>
       </c>
       <c r="E5" s="3">
         <v>800</v>
@@ -1600,848 +1339,941 @@
       <c r="G5">
         <v>400</v>
       </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
+      <c r="N5" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:36">
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="E6" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="G6">
-        <v>400</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" t="s">
-        <v>25</v>
+        <v>700</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="Z6">
+        <v>3</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:36">
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="E7" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G7">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" t="s">
-        <v>25</v>
+      <c r="N7" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:36">
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="E8" s="3">
-        <v>800</v>
-      </c>
-      <c r="G8">
-        <v>400</v>
+        <v>1900</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1200</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="3">
+        <v>1600</v>
+      </c>
       <c r="M8" s="1"/>
-      <c r="N8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
+      <c r="N8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:36">
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="E9" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1200</v>
+        <v>900</v>
+      </c>
+      <c r="G9">
+        <v>450</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="3">
-        <v>1600</v>
-      </c>
+      <c r="L9" s="3"/>
       <c r="M9" s="1"/>
-      <c r="N9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" t="s">
-        <v>25</v>
+      <c r="N9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:36">
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3">
-        <v>900</v>
-      </c>
-      <c r="G10">
-        <v>450</v>
+        <v>2000</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" t="s">
-        <v>25</v>
+      <c r="N10" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
+      </c>
+      <c r="Z10">
+        <v>3</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:36">
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="E11" s="3">
-        <v>2000</v>
+        <v>1050</v>
+      </c>
+      <c r="G11">
+        <v>530</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" t="s">
-        <v>25</v>
+      <c r="N11" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
+      </c>
+      <c r="Z11">
+        <v>3</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:36">
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="E12" s="3">
-        <v>1050</v>
+        <v>940</v>
       </c>
       <c r="G12">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" t="s">
-        <v>25</v>
+      <c r="N12" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:36">
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="E13" s="3">
-        <v>940</v>
+        <v>1200</v>
       </c>
       <c r="G13">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" t="s">
-        <v>25</v>
+      <c r="N13" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:36">
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="E14" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G14">
-        <v>600</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" t="s">
-        <v>25</v>
+        <v>550</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
       </c>
       <c r="P14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
+      </c>
+      <c r="Z14">
+        <v>3</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:36">
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="E15" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G15">
-        <v>550</v>
-      </c>
-      <c r="N15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" t="s">
-        <v>25</v>
+        <v>400</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:36">
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="E16" s="3">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="G16">
-        <v>400</v>
-      </c>
-      <c r="N16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" t="s">
-        <v>25</v>
-      </c>
-      <c r="P16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" t="s">
-        <v>23</v>
+        <v>600</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>92</v>
+        <v>63</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G17">
-        <v>600</v>
+        <v>1800</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
+      </c>
+      <c r="Z17">
+        <v>3</v>
       </c>
       <c r="AJ17" s="2" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="E18" s="3">
-        <v>1800</v>
+        <v>700</v>
+      </c>
+      <c r="G18">
+        <v>350</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" t="s">
+        <v>22</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="Z18">
+        <v>3</v>
       </c>
       <c r="AJ18" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:36">
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E19" s="3">
-        <v>700</v>
-      </c>
-      <c r="G19">
-        <v>350</v>
-      </c>
-      <c r="N19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" t="s">
-        <v>25</v>
+        <v>2900</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1450</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
+      </c>
+      <c r="Z19">
+        <v>3</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:36">
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="E20" s="3">
-        <v>2900</v>
+        <v>3550</v>
       </c>
       <c r="G20" s="3">
-        <v>1450</v>
-      </c>
-      <c r="K20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N20" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" t="s">
-        <v>25</v>
+        <v>1780</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>108</v>
+        <v>77</v>
+      </c>
+      <c r="Z20">
+        <v>3</v>
       </c>
       <c r="AJ20" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:36">
       <c r="B21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>111</v>
+        <v>75</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="E21" s="3">
+        <v>4550</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2280</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z21">
+        <v>3</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" ht="14" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1250</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z22">
+        <v>3</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:36">
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z23">
+        <v>3</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:36" ht="19">
+      <c r="B24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1850</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1650</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="N24" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36">
+      <c r="B25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E25" s="3">
         <v>3550</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G25" s="3">
         <v>1780</v>
       </c>
-      <c r="N21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" t="s">
-        <v>25</v>
-      </c>
-      <c r="P21" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>22</v>
-      </c>
-      <c r="R21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ21" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="2:36" ht="19">
-      <c r="B22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="N25" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:36">
+      <c r="B26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="3">
         <v>4550</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G26" s="3">
         <v>2280</v>
       </c>
-      <c r="N22" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22">
+      <c r="N26" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O26">
         <v>2</v>
       </c>
-      <c r="P22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ22" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="2:36" ht="14" customHeight="1">
-      <c r="B23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="P26" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" t="s">
+        <v>22</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="2:36">
+      <c r="B27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F27">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H27">
         <v>1250</v>
       </c>
-      <c r="N23" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ23" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:36">
-      <c r="B24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N24" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>22</v>
-      </c>
-      <c r="R24" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ24" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="2:36" ht="19">
-      <c r="B25" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1850</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1650</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="T25" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ25" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="2:36" ht="19">
-      <c r="B26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3550</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1780</v>
-      </c>
-      <c r="N26" t="s">
-        <v>29</v>
-      </c>
-      <c r="O26" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>22</v>
-      </c>
-      <c r="R26" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ26" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:36" ht="19">
-      <c r="B27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E27" s="3">
-        <v>4550</v>
-      </c>
-      <c r="G27" s="3">
-        <v>2280</v>
-      </c>
-      <c r="N27" t="s">
-        <v>29</v>
+      <c r="N27" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="O27">
         <v>2</v>
       </c>
       <c r="P27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
+      </c>
+      <c r="Z27">
+        <v>3</v>
       </c>
       <c r="AJ27" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="2:36" ht="19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36">
       <c r="B28" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="E28" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F28">
+        <v>5000</v>
+      </c>
+      <c r="G28" s="3">
         <v>2500</v>
       </c>
-      <c r="G28" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H28">
-        <v>1250</v>
-      </c>
-      <c r="N28" t="s">
-        <v>29</v>
+      <c r="N28" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
+      </c>
+      <c r="Z28">
+        <v>3</v>
       </c>
       <c r="AJ28" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="2:36" ht="19">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:36">
       <c r="B29" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>185</v>
+        <v>88</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E29" s="3">
-        <v>5000</v>
+        <v>1650</v>
       </c>
       <c r="G29" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N29" t="s">
-        <v>29</v>
+        <v>830</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="O29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>127</v>
+      </c>
+      <c r="Z29">
+        <v>3</v>
       </c>
       <c r="AJ29" s="2" t="s">
         <v>126</v>
@@ -2452,284 +2284,308 @@
         <v>125</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E30" s="3">
-        <v>1650</v>
+        <v>1100</v>
       </c>
       <c r="G30" s="3">
-        <v>830</v>
-      </c>
-      <c r="N30" t="s">
-        <v>29</v>
-      </c>
-      <c r="O30" t="s">
-        <v>25</v>
+        <v>550</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
+      </c>
+      <c r="Z30">
+        <v>3</v>
       </c>
       <c r="AJ30" s="2" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:36">
       <c r="B31" s="2" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E31" s="3">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="G31" s="3">
-        <v>550</v>
-      </c>
-      <c r="N31" t="s">
-        <v>29</v>
-      </c>
-      <c r="O31" t="s">
-        <v>25</v>
+        <v>350</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>176</v>
+        <v>93</v>
+      </c>
+      <c r="Z31">
+        <v>3</v>
       </c>
       <c r="AJ31" s="2" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="2:36">
       <c r="B32" s="2" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="E32" s="3">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="G32" s="3">
-        <v>350</v>
-      </c>
-      <c r="N32" t="s">
-        <v>29</v>
-      </c>
-      <c r="O32" t="s">
-        <v>25</v>
+        <v>340</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>130</v>
+        <v>96</v>
+      </c>
+      <c r="Z32">
+        <v>3</v>
       </c>
       <c r="AJ32" s="2" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:36">
       <c r="B33" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>400</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E33" s="3">
-        <v>680</v>
-      </c>
-      <c r="G33" s="3">
-        <v>340</v>
-      </c>
-      <c r="N33" t="s">
-        <v>29</v>
-      </c>
-      <c r="O33" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>22</v>
-      </c>
-      <c r="R33" t="s">
-        <v>23</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>133</v>
+      <c r="Z33">
+        <v>3</v>
       </c>
       <c r="AJ33" s="2" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="2:36">
       <c r="B34" s="2" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E34" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G34" s="3">
-        <v>400</v>
-      </c>
-      <c r="N34" t="s">
-        <v>29</v>
-      </c>
-      <c r="O34" t="s">
-        <v>25</v>
+        <v>300</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
       </c>
       <c r="P34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>178</v>
+        <v>133</v>
+      </c>
+      <c r="Z34">
+        <v>3</v>
       </c>
       <c r="AJ34" s="2" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="2:36">
       <c r="B35" s="2" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="E35" s="3">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="G35" s="3">
-        <v>300</v>
-      </c>
-      <c r="N35" t="s">
-        <v>29</v>
-      </c>
-      <c r="O35" t="s">
-        <v>25</v>
+        <v>330</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
       </c>
       <c r="P35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>180</v>
+        <v>135</v>
+      </c>
+      <c r="Z35">
+        <v>3</v>
       </c>
       <c r="AJ35" s="2" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="2:36">
       <c r="B36" s="2" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E36" s="3">
-        <v>660</v>
-      </c>
-      <c r="G36" s="3">
-        <v>330</v>
-      </c>
-      <c r="N36" t="s">
-        <v>29</v>
-      </c>
-      <c r="O36" t="s">
-        <v>25</v>
+        <v>360</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>182</v>
+        <v>104</v>
+      </c>
+      <c r="Z36">
+        <v>3</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="2:36">
       <c r="B37" s="2" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="E37" s="3">
-        <v>360</v>
-      </c>
-      <c r="N37" t="s">
-        <v>29</v>
-      </c>
-      <c r="O37" t="s">
-        <v>25</v>
+        <v>800</v>
+      </c>
+      <c r="G37" s="3">
+        <v>400</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>141</v>
+        <v>107</v>
+      </c>
+      <c r="Z37">
+        <v>3</v>
       </c>
       <c r="AJ37" s="2" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="2:36">
       <c r="B38" s="2" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E38" s="3">
         <v>800</v>
@@ -2737,234 +2593,221 @@
       <c r="G38" s="3">
         <v>400</v>
       </c>
-      <c r="N38" t="s">
-        <v>29</v>
-      </c>
-      <c r="O38" t="s">
-        <v>25</v>
+      <c r="N38" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
       </c>
       <c r="P38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>145</v>
+        <v>110</v>
+      </c>
+      <c r="Z38">
+        <v>3</v>
       </c>
       <c r="AJ38" s="2" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="2:36">
       <c r="B39" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E39" s="3">
-        <v>800</v>
+        <v>1220</v>
       </c>
       <c r="G39" s="3">
-        <v>400</v>
-      </c>
-      <c r="N39" t="s">
-        <v>29</v>
-      </c>
-      <c r="O39" t="s">
-        <v>25</v>
+        <v>610</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
+      </c>
+      <c r="Z39">
+        <v>3</v>
       </c>
       <c r="AJ39" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="2:36">
       <c r="B40" s="2" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E40" s="3">
-        <v>1220</v>
+        <v>710</v>
       </c>
       <c r="G40" s="3">
-        <v>610</v>
-      </c>
-      <c r="N40" t="s">
-        <v>29</v>
-      </c>
-      <c r="O40" t="s">
-        <v>25</v>
+        <v>360</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>192</v>
+        <v>114</v>
+      </c>
+      <c r="Z40">
+        <v>3</v>
       </c>
       <c r="AJ40" s="2" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="2:36">
       <c r="B41" s="2" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E41" s="3">
-        <v>710</v>
+        <v>550</v>
       </c>
       <c r="G41" s="3">
-        <v>360</v>
-      </c>
-      <c r="N41" t="s">
-        <v>29</v>
-      </c>
-      <c r="O41" t="s">
-        <v>25</v>
+        <v>280</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>153</v>
+        <v>117</v>
+      </c>
+      <c r="Z41">
+        <v>3</v>
       </c>
       <c r="AJ41" s="2" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="2:36">
       <c r="B42" s="2" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E42" s="3">
-        <v>550</v>
-      </c>
-      <c r="G42" s="3">
-        <v>280</v>
-      </c>
-      <c r="N42" t="s">
-        <v>29</v>
-      </c>
-      <c r="O42" t="s">
-        <v>25</v>
+        <v>1040</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>157</v>
+        <v>119</v>
+      </c>
+      <c r="Z42">
+        <v>3</v>
       </c>
       <c r="AJ42" s="2" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="2:36">
       <c r="B43" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="E43" s="3">
-        <v>1040</v>
-      </c>
-      <c r="N43" t="s">
-        <v>29</v>
-      </c>
-      <c r="O43" t="s">
-        <v>25</v>
+        <v>1000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>500</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
       </c>
       <c r="P43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
+      </c>
+      <c r="Z43">
+        <v>3</v>
       </c>
       <c r="AJ43" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="2:36">
-      <c r="B44" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>500</v>
-      </c>
-      <c r="N44" t="s">
-        <v>29</v>
-      </c>
-      <c r="O44" t="s">
-        <v>25</v>
-      </c>
-      <c r="P44" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>22</v>
-      </c>
-      <c r="R44" t="s">
-        <v>23</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ44" s="2" t="s">
-        <v>194</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="11:13">
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
     </row>
     <row r="56" spans="11:13">
       <c r="L56" s="1"/>
@@ -2979,6 +2822,7 @@
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="11:13">
+      <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
@@ -3221,11 +3065,6 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
-    </row>
-    <row r="108" spans="11:13">
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
